--- a/output/1Y_P18_KFSDIV.xlsx
+++ b/output/1Y_P18_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.5994</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.6663</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="F3" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="H3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0785</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>14.701</v>
       </c>
       <c r="C4" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D4" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E4" s="1">
-        <v>1417.1618</v>
+        <v>1414.3299</v>
       </c>
       <c r="F4" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="H4" s="1">
-        <v>20833.6954</v>
+        <v>20750.4831</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20833.6954</v>
+        <v>20750.4831</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1127</v>
+        <v>14.141</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0024</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.8109</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E5" s="1">
-        <v>2097.3876</v>
+        <v>2093.1935</v>
       </c>
       <c r="F5" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="H5" s="1">
-        <v>28966.8107</v>
+        <v>28851.1142</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28966.8107</v>
+        <v>28851.1142</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.3035</v>
+        <v>14.3322</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1275.4456</v>
+        <v>1272.8969</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8724.554400000001</v>
+        <v>-8727.1031</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0605</v>
+        <v>-0.0618</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.9322</v>
       </c>
       <c r="C6" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D6" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E6" s="1">
-        <v>2821.4534</v>
+        <v>2815.81</v>
       </c>
       <c r="F6" s="1">
-        <v>729.2051</v>
+        <v>727.7249</v>
       </c>
       <c r="H6" s="1">
-        <v>39309.053</v>
+        <v>39151.8665</v>
       </c>
       <c r="I6" s="1">
-        <v>1275.4456</v>
+        <v>1272.8969</v>
       </c>
       <c r="J6" s="1">
-        <v>40584.4986</v>
+        <v>40424.7635</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.1771</v>
+        <v>14.2055</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10159.4307</v>
+        <v>-10159.1121</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0415</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.5846</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E7" s="1">
-        <v>3550.6585</v>
+        <v>3543.5348</v>
       </c>
       <c r="F7" s="1">
-        <v>807.2907</v>
+        <v>805.6521</v>
       </c>
       <c r="H7" s="1">
-        <v>44683.6164</v>
+        <v>44504.6716</v>
       </c>
       <c r="I7" s="1">
-        <v>1116.0149</v>
+        <v>1113.7848</v>
       </c>
       <c r="J7" s="1">
-        <v>45799.6313</v>
+        <v>45618.4564</v>
       </c>
       <c r="K7" s="1">
-        <v>50159.4307</v>
+        <v>50159.1121</v>
       </c>
       <c r="L7" s="1">
-        <v>14.1268</v>
+        <v>14.1551</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10159.4307</v>
+        <v>-10159.1121</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0946</v>
+        <v>-0.0953</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>12.2867</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E8" s="1">
-        <v>4357.9492</v>
+        <v>4349.187</v>
       </c>
       <c r="F8" s="1">
-        <v>826.8641</v>
+        <v>825.186</v>
       </c>
       <c r="H8" s="1">
-        <v>53544.814</v>
+        <v>53330.1655</v>
       </c>
       <c r="I8" s="1">
-        <v>956.5842</v>
+        <v>954.6727</v>
       </c>
       <c r="J8" s="1">
-        <v>54501.3982</v>
+        <v>54284.8382</v>
       </c>
       <c r="K8" s="1">
-        <v>60318.8614</v>
+        <v>60318.2242</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8411</v>
+        <v>13.8689</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1597.7963</v>
+        <v>1594.5907</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8561.634400000001</v>
+        <v>-8564.5214</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0233</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.0645</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E9" s="1">
-        <v>5184.8132</v>
+        <v>5174.3729</v>
       </c>
       <c r="F9" s="1">
-        <v>802.0965</v>
+        <v>800.4179</v>
       </c>
       <c r="H9" s="1">
-        <v>67736.9924</v>
+        <v>67465.5442</v>
       </c>
       <c r="I9" s="1">
-        <v>2394.9498</v>
+        <v>2390.1513</v>
       </c>
       <c r="J9" s="1">
-        <v>70131.9422</v>
+        <v>69855.6955</v>
       </c>
       <c r="K9" s="1">
-        <v>70478.29210000001</v>
+        <v>70477.3364</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5932</v>
+        <v>13.6205</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10478.99</v>
+        <v>-10478.0303</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0873</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.8083</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E10" s="1">
-        <v>5986.9097</v>
+        <v>5974.7908</v>
       </c>
       <c r="F10" s="1">
-        <v>758.8907</v>
+        <v>757.302</v>
       </c>
       <c r="H10" s="1">
-        <v>82669.0459</v>
+        <v>82336.79979999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1915.9598</v>
+        <v>1912.121</v>
       </c>
       <c r="J10" s="1">
-        <v>84585.00569999999</v>
+        <v>84248.9209</v>
       </c>
       <c r="K10" s="1">
-        <v>80957.2821</v>
+        <v>80955.36659999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5224</v>
+        <v>13.5495</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10478.99</v>
+        <v>-10478.0303</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0556</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.5636</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E11" s="1">
-        <v>6745.8004</v>
+        <v>6732.0928</v>
       </c>
       <c r="F11" s="1">
-        <v>772.5818</v>
+        <v>770.9648999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>91497.3385</v>
+        <v>91128.9742</v>
       </c>
       <c r="I11" s="1">
-        <v>1436.9699</v>
+        <v>1434.0908</v>
       </c>
       <c r="J11" s="1">
-        <v>92934.30839999999</v>
+        <v>92563.065</v>
       </c>
       <c r="K11" s="1">
-        <v>91436.272</v>
+        <v>91433.39690000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5545</v>
+        <v>13.5817</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2694.1094</v>
+        <v>2688.6559</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7784.8806</v>
+        <v>-7789.3744</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0175</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.1788</v>
       </c>
       <c r="C12" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D12" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E12" s="1">
-        <v>7518.3822</v>
+        <v>7503.0577</v>
       </c>
       <c r="F12" s="1">
-        <v>897.3537</v>
+        <v>895.2805</v>
       </c>
       <c r="H12" s="1">
-        <v>99083.255</v>
+        <v>98683.2166</v>
       </c>
       <c r="I12" s="1">
-        <v>3652.0893</v>
+        <v>3644.7164</v>
       </c>
       <c r="J12" s="1">
-        <v>102735.3443</v>
+        <v>102327.933</v>
       </c>
       <c r="K12" s="1">
-        <v>101915.262</v>
+        <v>101911.4271</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5555</v>
+        <v>13.5827</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11826.0447</v>
+        <v>-11822.3582</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0019</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>14.5668</v>
       </c>
       <c r="C13" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D13" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E13" s="1">
-        <v>8415.7359</v>
+        <v>8398.3382</v>
       </c>
       <c r="F13" s="1">
-        <v>811.8492</v>
+        <v>809.9725</v>
       </c>
       <c r="H13" s="1">
-        <v>122590.341</v>
+        <v>122092.522</v>
       </c>
       <c r="I13" s="1">
-        <v>1826.0447</v>
+        <v>1822.3582</v>
       </c>
       <c r="J13" s="1">
-        <v>124416.3856</v>
+        <v>123914.8802</v>
       </c>
       <c r="K13" s="1">
-        <v>113741.3066</v>
+        <v>113733.7853</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5153</v>
+        <v>13.5424</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11826.0447</v>
+        <v>-11822.3582</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1036</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.962</v>
       </c>
       <c r="C14" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D14" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E14" s="1">
-        <v>9227.584999999999</v>
+        <v>9208.3107</v>
       </c>
       <c r="F14" s="1">
-        <v>-9227.584999999999</v>
+        <v>-9208.3107</v>
       </c>
       <c r="H14" s="1">
-        <v>128835.5422</v>
+        <v>128309.5224</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>128835.5422</v>
+        <v>128309.5224</v>
       </c>
       <c r="K14" s="1">
-        <v>125567.3513</v>
+        <v>125556.1435</v>
       </c>
       <c r="L14" s="1">
-        <v>13.6078</v>
+        <v>13.6351</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3787.0811</v>
+        <v>3779.2522</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132622.6234</v>
+        <v>132088.7746</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0415</v>
+        <v>-0.0419</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.5994</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.6663</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="F3" s="1">
-        <v>628.3439</v>
+        <v>632.5414</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9215.480100000001</v>
+        <v>-9295.639300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0785</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>14.701</v>
       </c>
       <c r="C4" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D4" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E4" s="1">
-        <v>1363.6705</v>
+        <v>1366.4002</v>
       </c>
       <c r="F4" s="1">
-        <v>677.0069999999999</v>
+        <v>678.3665</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20047.3194</v>
+        <v>20047.2774</v>
       </c>
       <c r="I4" s="1">
-        <v>784.5199</v>
+        <v>704.3607</v>
       </c>
       <c r="J4" s="1">
-        <v>20831.8393</v>
+        <v>20751.6382</v>
       </c>
       <c r="K4" s="1">
-        <v>19215.4801</v>
+        <v>19295.6393</v>
       </c>
       <c r="L4" s="1">
-        <v>14.091</v>
+        <v>14.1215</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9952.6806</v>
+        <v>-9992.6783</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0023</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.8109</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E5" s="1">
-        <v>2040.6775</v>
+        <v>2044.7668</v>
       </c>
       <c r="F5" s="1">
-        <v>784.2963999999999</v>
+        <v>774.0438</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28183.593</v>
+        <v>28183.6337</v>
       </c>
       <c r="I5" s="1">
-        <v>831.8393</v>
+        <v>711.6824</v>
       </c>
       <c r="J5" s="1">
-        <v>29015.4322</v>
+        <v>28895.3161</v>
       </c>
       <c r="K5" s="1">
-        <v>29168.1607</v>
+        <v>29288.3176</v>
       </c>
       <c r="L5" s="1">
-        <v>14.2934</v>
+        <v>14.3235</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1227.3034</v>
+        <v>1229.7602</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9604.535900000001</v>
+        <v>-9481.922200000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0589</v>
+        <v>-0.0604</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.9322</v>
       </c>
       <c r="C6" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D6" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E6" s="1">
-        <v>2824.9739</v>
+        <v>2818.8105</v>
       </c>
       <c r="F6" s="1">
-        <v>763.8347</v>
+        <v>777.1993</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39358.1016</v>
+        <v>39193.5875</v>
       </c>
       <c r="I6" s="1">
-        <v>1227.3034</v>
+        <v>1229.7602</v>
       </c>
       <c r="J6" s="1">
-        <v>40585.405</v>
+        <v>40423.3477</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.1594</v>
+        <v>14.1904</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10641.8984</v>
+        <v>-10849.7802</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0402</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.5846</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E7" s="1">
-        <v>3588.8087</v>
+        <v>3596.0099</v>
       </c>
       <c r="F7" s="1">
-        <v>841.1396</v>
+        <v>823.1677</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>45163.7215</v>
+        <v>45163.7263</v>
       </c>
       <c r="I7" s="1">
-        <v>585.405</v>
+        <v>379.98</v>
       </c>
       <c r="J7" s="1">
-        <v>45749.1264</v>
+        <v>45543.7063</v>
       </c>
       <c r="K7" s="1">
-        <v>50641.8984</v>
+        <v>50849.7802</v>
       </c>
       <c r="L7" s="1">
-        <v>14.1111</v>
+        <v>14.1406</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10585.405</v>
+        <v>-10379.98</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0956</v>
+        <v>-0.0968</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>12.2867</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E8" s="1">
-        <v>4429.9482</v>
+        <v>4419.1776</v>
       </c>
       <c r="F8" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>54429.4448</v>
+        <v>54188.3972</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>54429.4448</v>
+        <v>54188.3972</v>
       </c>
       <c r="K8" s="1">
-        <v>61227.3034</v>
+        <v>61229.7602</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8212</v>
+        <v>13.8555</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1614.9639</v>
+        <v>1618.2044</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8385.036099999999</v>
+        <v>-8381.795599999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0237</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.0645</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E9" s="1">
-        <v>5243.8364</v>
+        <v>5231.4395</v>
       </c>
       <c r="F9" s="1">
-        <v>879.6279</v>
+        <v>887.5159</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68508.1008</v>
+        <v>68209.6004</v>
       </c>
       <c r="I9" s="1">
-        <v>1614.9639</v>
+        <v>1618.2044</v>
       </c>
       <c r="J9" s="1">
-        <v>70123.0647</v>
+        <v>69827.8048</v>
       </c>
       <c r="K9" s="1">
-        <v>71227.3034</v>
+        <v>71229.7602</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5831</v>
+        <v>13.6157</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11491.8992</v>
+        <v>-11618.2044</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.08840000000000001</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.8083</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E10" s="1">
-        <v>6123.4643</v>
+        <v>6118.9554</v>
       </c>
       <c r="F10" s="1">
-        <v>394.3546</v>
+        <v>411.9175</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>84554.63280000001</v>
+        <v>84323.4883</v>
       </c>
       <c r="I10" s="1">
-        <v>123.0647</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>84677.69749999999</v>
+        <v>84323.4883</v>
       </c>
       <c r="K10" s="1">
-        <v>82719.2026</v>
+        <v>82847.96460000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5086</v>
+        <v>13.5396</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5445.3672</v>
+        <v>-5699.2907</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0568</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>13.5636</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E11" s="1">
-        <v>6517.819</v>
+        <v>6530.8729</v>
       </c>
       <c r="F11" s="1">
-        <v>854.8549</v>
+        <v>856.5611</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>88405.0897</v>
+        <v>88405.1608</v>
       </c>
       <c r="I11" s="1">
-        <v>4677.6975</v>
+        <v>4300.7093</v>
       </c>
       <c r="J11" s="1">
-        <v>93082.78720000001</v>
+        <v>92705.8701</v>
       </c>
       <c r="K11" s="1">
-        <v>88164.5698</v>
+        <v>88547.25539999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5267</v>
+        <v>13.5583</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2755.559</v>
+        <v>2753.5299</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8839.3514</v>
+        <v>-8887.8205</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0168</v>
+        <v>-0.0171</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.1788</v>
       </c>
       <c r="C12" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D12" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E12" s="1">
-        <v>7372.6739</v>
+        <v>7387.434</v>
       </c>
       <c r="F12" s="1">
-        <v>974.0648</v>
+        <v>976.0586</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97162.9951</v>
+        <v>97162.4866</v>
       </c>
       <c r="I12" s="1">
-        <v>5838.3461</v>
+        <v>5412.8887</v>
       </c>
       <c r="J12" s="1">
-        <v>103001.3412</v>
+        <v>102575.3754</v>
       </c>
       <c r="K12" s="1">
-        <v>99759.4801</v>
+        <v>100188.6058</v>
       </c>
       <c r="L12" s="1">
-        <v>13.531</v>
+        <v>13.562</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12837.0049</v>
+        <v>-12889.0493</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0008</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>14.5668</v>
       </c>
       <c r="C13" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D13" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E13" s="1">
-        <v>8346.7387</v>
+        <v>8363.4926</v>
       </c>
       <c r="F13" s="1">
-        <v>-108.8278</v>
+        <v>-109.092</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>121585.2733</v>
+        <v>121585.9463</v>
       </c>
       <c r="I13" s="1">
-        <v>3001.3412</v>
+        <v>2523.8395</v>
       </c>
       <c r="J13" s="1">
-        <v>124586.6145</v>
+        <v>124109.7858</v>
       </c>
       <c r="K13" s="1">
-        <v>112596.4851</v>
+        <v>113077.6551</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4899</v>
+        <v>13.5204</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>1585.2733</v>
+        <v>1585.9463</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1025</v>
@@ -2086,49 +2086,49 @@
         <v>13.962</v>
       </c>
       <c r="C14" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D14" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E14" s="1">
-        <v>8237.910900000001</v>
+        <v>8254.400600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8237.910900000001</v>
+        <v>-8254.400600000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115017.7115</v>
+        <v>115017.6438</v>
       </c>
       <c r="I14" s="1">
-        <v>14586.6145</v>
+        <v>14109.7858</v>
       </c>
       <c r="J14" s="1">
-        <v>129604.326</v>
+        <v>129127.4295</v>
       </c>
       <c r="K14" s="1">
-        <v>111011.2117</v>
+        <v>111485.3487</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4757</v>
+        <v>13.5062</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3756.0324</v>
+        <v>3763.5717</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118773.7439</v>
+        <v>118781.2154</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.037</v>
+        <v>-0.0372</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2152,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>13.5994</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.6663</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="F3" s="1">
-        <v>631.7531</v>
+        <v>635.9574</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9265.480100000001</v>
+        <v>-9345.8398</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0785</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>14.701</v>
       </c>
       <c r="C4" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D4" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E4" s="1">
-        <v>1367.0796</v>
+        <v>1369.8162</v>
       </c>
       <c r="F4" s="1">
-        <v>683.8183</v>
+        <v>685.1914</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20097.4377</v>
+        <v>20097.3956</v>
       </c>
       <c r="I4" s="1">
-        <v>734.5199</v>
+        <v>654.1602</v>
       </c>
       <c r="J4" s="1">
-        <v>20831.9576</v>
+        <v>20751.5558</v>
       </c>
       <c r="K4" s="1">
-        <v>19265.4801</v>
+        <v>19345.8398</v>
       </c>
       <c r="L4" s="1">
-        <v>14.0924</v>
+        <v>14.1229</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10052.8123</v>
+        <v>-10093.2121</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0023</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.8109</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E5" s="1">
-        <v>2050.8979</v>
+        <v>2055.0076</v>
       </c>
       <c r="F5" s="1">
-        <v>773.4259</v>
+        <v>763.1515000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28324.7458</v>
+        <v>28324.7867</v>
       </c>
       <c r="I5" s="1">
-        <v>681.7076</v>
+        <v>560.9481</v>
       </c>
       <c r="J5" s="1">
-        <v>29006.4533</v>
+        <v>28885.7348</v>
       </c>
       <c r="K5" s="1">
-        <v>29318.2924</v>
+        <v>29439.0519</v>
       </c>
       <c r="L5" s="1">
-        <v>14.2953</v>
+        <v>14.3255</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1230.3717</v>
+        <v>1232.8346</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9451.3359</v>
+        <v>-9328.113499999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0592</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.9322</v>
       </c>
       <c r="C6" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D6" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E6" s="1">
-        <v>2824.3238</v>
+        <v>2818.1591</v>
       </c>
       <c r="F6" s="1">
-        <v>800.5529</v>
+        <v>804.6385</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39349.0438</v>
+        <v>39184.5298</v>
       </c>
       <c r="I6" s="1">
-        <v>1230.3717</v>
+        <v>1232.8346</v>
       </c>
       <c r="J6" s="1">
-        <v>40579.4155</v>
+        <v>40417.3644</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.1627</v>
+        <v>14.1937</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11153.4624</v>
+        <v>-11232.8346</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0403</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.5846</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E7" s="1">
-        <v>3624.8766</v>
+        <v>3622.7977</v>
       </c>
       <c r="F7" s="1">
-        <v>800.7334</v>
+        <v>793.034</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>45617.6225</v>
+        <v>45500.165</v>
       </c>
       <c r="I7" s="1">
-        <v>76.9092</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45694.5317</v>
+        <v>45500.165</v>
       </c>
       <c r="K7" s="1">
-        <v>51153.4624</v>
+        <v>51232.8346</v>
       </c>
       <c r="L7" s="1">
-        <v>14.1118</v>
+        <v>14.1418</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10076.9092</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.09660000000000001</v>
+        <v>-0.0975</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>12.2867</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E8" s="1">
-        <v>4425.61</v>
+        <v>4415.8317</v>
       </c>
       <c r="F8" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>54376.1425</v>
+        <v>54147.3693</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>54376.1425</v>
+        <v>54147.3693</v>
       </c>
       <c r="K8" s="1">
-        <v>61230.3717</v>
+        <v>61232.8346</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8355</v>
+        <v>13.8667</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1631.1945</v>
+        <v>1630.2589</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8368.8055</v>
+        <v>-8369.741099999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0237</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.0645</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E9" s="1">
-        <v>5239.4982</v>
+        <v>5228.0936</v>
       </c>
       <c r="F9" s="1">
-        <v>890.2901000000001</v>
+        <v>888.4367</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>68451.42419999999</v>
+        <v>68165.97500000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1631.1945</v>
+        <v>1630.2589</v>
       </c>
       <c r="J9" s="1">
-        <v>70082.61870000001</v>
+        <v>69796.234</v>
       </c>
       <c r="K9" s="1">
-        <v>71230.3717</v>
+        <v>71232.8346</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5949</v>
+        <v>13.625</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11631.1945</v>
+        <v>-11630.2589</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0886</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.8083</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E10" s="1">
-        <v>6129.7883</v>
+        <v>6116.5303</v>
       </c>
       <c r="F10" s="1">
-        <v>519.9194</v>
+        <v>546.4954</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>84641.9552</v>
+        <v>84290.0692</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>84641.9552</v>
+        <v>84290.0692</v>
       </c>
       <c r="K10" s="1">
-        <v>82861.5662</v>
+        <v>82863.0935</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5179</v>
+        <v>13.5474</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7179.2031</v>
+        <v>-7561.3103</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0569</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>13.5636</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E11" s="1">
-        <v>6649.7077</v>
+        <v>6663.0257</v>
       </c>
       <c r="F11" s="1">
-        <v>891.0827</v>
+        <v>892.8613</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>90193.9748</v>
+        <v>90194.0474</v>
       </c>
       <c r="I11" s="1">
-        <v>2820.7969</v>
+        <v>2438.6897</v>
       </c>
       <c r="J11" s="1">
-        <v>93014.7717</v>
+        <v>92632.7371</v>
       </c>
       <c r="K11" s="1">
-        <v>90040.7692</v>
+        <v>90424.4038</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5406</v>
+        <v>13.5711</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2758.4047</v>
+        <v>2752.4386</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9327.8845</v>
+        <v>-9382.260399999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0172</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.1788</v>
       </c>
       <c r="C12" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D12" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E12" s="1">
-        <v>7540.7904</v>
+        <v>7555.887</v>
       </c>
       <c r="F12" s="1">
-        <v>1017.7784</v>
+        <v>988.7338999999999</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99378.568</v>
+        <v>99378.04790000001</v>
       </c>
       <c r="I12" s="1">
-        <v>3492.9124</v>
+        <v>3056.4293</v>
       </c>
       <c r="J12" s="1">
-        <v>102871.4803</v>
+        <v>102434.4772</v>
       </c>
       <c r="K12" s="1">
-        <v>102127.0585</v>
+        <v>102559.1029</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5433</v>
+        <v>13.5734</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13413.0974</v>
+        <v>-13056.4293</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0014</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>14.5668</v>
       </c>
       <c r="C13" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D13" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E13" s="1">
-        <v>8558.5687</v>
+        <v>8544.6209</v>
       </c>
       <c r="F13" s="1">
-        <v>-90.2968</v>
+        <v>-59.3981</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>124670.9588</v>
+        <v>124219.1354</v>
       </c>
       <c r="I13" s="1">
-        <v>79.81489999999999</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>124750.7737</v>
+        <v>124219.1354</v>
       </c>
       <c r="K13" s="1">
-        <v>115540.1559</v>
+        <v>115615.5322</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4999</v>
+        <v>13.5308</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>1315.3351</v>
+        <v>863.5117</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1052</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>13.962</v>
       </c>
       <c r="C14" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D14" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E14" s="1">
-        <v>8468.2719</v>
+        <v>8485.2228</v>
       </c>
       <c r="F14" s="1">
-        <v>-8468.2719</v>
+        <v>-8485.2228</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118234.0129</v>
+        <v>118233.9432</v>
       </c>
       <c r="I14" s="1">
-        <v>11395.15</v>
+        <v>10863.5117</v>
       </c>
       <c r="J14" s="1">
-        <v>129629.1628</v>
+        <v>129097.4549</v>
       </c>
       <c r="K14" s="1">
-        <v>114224.8209</v>
+        <v>114748.5576</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4886</v>
+        <v>13.5233</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3851.3559</v>
+        <v>3845.0794</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122085.3688</v>
+        <v>122079.0226</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.038</v>
+        <v>-0.0382</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.5994</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.6663</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="F3" s="1">
-        <v>635.1622</v>
+        <v>639.3733999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9315.480100000001</v>
+        <v>-9396.040300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0785</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>14.701</v>
       </c>
       <c r="C4" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D4" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E4" s="1">
-        <v>1370.4888</v>
+        <v>1373.2322</v>
       </c>
       <c r="F4" s="1">
-        <v>690.6635</v>
+        <v>692.0504</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20147.556</v>
+        <v>20147.5138</v>
       </c>
       <c r="I4" s="1">
-        <v>684.5199</v>
+        <v>603.9597</v>
       </c>
       <c r="J4" s="1">
-        <v>20832.0759</v>
+        <v>20751.4735</v>
       </c>
       <c r="K4" s="1">
-        <v>19315.4801</v>
+        <v>19396.0403</v>
       </c>
       <c r="L4" s="1">
-        <v>14.0939</v>
+        <v>14.1244</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10153.444</v>
+        <v>-10194.2479</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0023</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.8109</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E5" s="1">
-        <v>2061.1523</v>
+        <v>2065.2826</v>
       </c>
       <c r="F5" s="1">
-        <v>762.5192</v>
+        <v>752.2229</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28466.3683</v>
+        <v>28466.4095</v>
       </c>
       <c r="I5" s="1">
-        <v>531.0759</v>
+        <v>409.7118</v>
       </c>
       <c r="J5" s="1">
-        <v>28997.4442</v>
+        <v>28876.1212</v>
       </c>
       <c r="K5" s="1">
-        <v>29468.9241</v>
+        <v>29590.2882</v>
       </c>
       <c r="L5" s="1">
-        <v>14.2973</v>
+        <v>14.3275</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1233.4399</v>
+        <v>1235.909</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9297.635899999999</v>
+        <v>-9173.802799999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0595</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.9322</v>
       </c>
       <c r="C6" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D6" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E6" s="1">
-        <v>2823.6715</v>
+        <v>2817.5055</v>
       </c>
       <c r="F6" s="1">
-        <v>806.2933</v>
+        <v>804.8588</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39339.9556</v>
+        <v>39175.4415</v>
       </c>
       <c r="I6" s="1">
-        <v>1233.4399</v>
+        <v>1235.909</v>
       </c>
       <c r="J6" s="1">
-        <v>40573.3955</v>
+        <v>40411.3505</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.166</v>
+        <v>14.197</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11233.4399</v>
+        <v>-11235.909</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0404</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.5846</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E7" s="1">
-        <v>3629.9648</v>
+        <v>3622.3643</v>
       </c>
       <c r="F7" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>45681.6549</v>
+        <v>45494.7217</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45681.6549</v>
+        <v>45494.7217</v>
       </c>
       <c r="K7" s="1">
-        <v>51233.4399</v>
+        <v>51235.909</v>
       </c>
       <c r="L7" s="1">
-        <v>14.114</v>
+        <v>14.1443</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0975</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>12.2867</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E8" s="1">
-        <v>4424.5868</v>
+        <v>4415.3982</v>
       </c>
       <c r="F8" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>54363.5705</v>
+        <v>54142.0548</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>54363.5705</v>
+        <v>54142.0548</v>
       </c>
       <c r="K8" s="1">
-        <v>61233.4399</v>
+        <v>61235.909</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8394</v>
+        <v>13.8687</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1633.4842</v>
+        <v>1630.0639</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8366.515799999999</v>
+        <v>-8369.936100000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0237</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.0645</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E9" s="1">
-        <v>5238.475</v>
+        <v>5227.6602</v>
       </c>
       <c r="F9" s="1">
-        <v>890.4653</v>
+        <v>888.4219000000001</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>68438.0564</v>
+        <v>68160.3241</v>
       </c>
       <c r="I9" s="1">
-        <v>1633.4842</v>
+        <v>1630.0639</v>
       </c>
       <c r="J9" s="1">
-        <v>70071.5405</v>
+        <v>69790.3881</v>
       </c>
       <c r="K9" s="1">
-        <v>71233.4399</v>
+        <v>71235.909</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5981</v>
+        <v>13.6267</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11633.4842</v>
+        <v>-11630.0639</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0887</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.8083</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E10" s="1">
-        <v>6128.9403</v>
+        <v>6116.082</v>
       </c>
       <c r="F10" s="1">
-        <v>655.7669</v>
+        <v>682.2136</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>84630.2463</v>
+        <v>84283.8913</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>84630.2463</v>
+        <v>84283.8913</v>
       </c>
       <c r="K10" s="1">
-        <v>82866.9241</v>
+        <v>82865.97289999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5206</v>
+        <v>13.5489</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9055.026400000001</v>
+        <v>-9439.1078</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0569</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>13.5636</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E11" s="1">
-        <v>6784.7072</v>
+        <v>6798.2956</v>
       </c>
       <c r="F11" s="1">
-        <v>806.9372</v>
+        <v>777.0617999999999</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>92025.0548</v>
+        <v>92025.1289</v>
       </c>
       <c r="I11" s="1">
-        <v>944.9736</v>
+        <v>560.8922</v>
       </c>
       <c r="J11" s="1">
-        <v>92970.0285</v>
+        <v>92586.0211</v>
       </c>
       <c r="K11" s="1">
-        <v>91921.95050000001</v>
+        <v>92305.0808</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5484</v>
+        <v>13.5777</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2758.0231</v>
+        <v>2752.2369</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8186.9505</v>
+        <v>-7808.6553</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0175</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.1788</v>
       </c>
       <c r="C12" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D12" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E12" s="1">
-        <v>7591.6444</v>
+        <v>7575.3575</v>
       </c>
       <c r="F12" s="1">
-        <v>968.0717</v>
+        <v>965.6981</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>100048.7637</v>
+        <v>99634.1318</v>
       </c>
       <c r="I12" s="1">
-        <v>2758.0231</v>
+        <v>2752.2369</v>
       </c>
       <c r="J12" s="1">
-        <v>102806.7868</v>
+        <v>102386.3687</v>
       </c>
       <c r="K12" s="1">
-        <v>102866.9241</v>
+        <v>102865.9729</v>
       </c>
       <c r="L12" s="1">
-        <v>13.55</v>
+        <v>13.579</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12758.0231</v>
+        <v>-12752.2369</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0016</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>14.5668</v>
       </c>
       <c r="C13" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D13" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E13" s="1">
-        <v>8559.7161</v>
+        <v>8541.0556</v>
       </c>
       <c r="F13" s="1">
-        <v>146.728</v>
+        <v>182.8161</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>124687.6728</v>
+        <v>124167.3042</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>124687.6728</v>
+        <v>124167.3042</v>
       </c>
       <c r="K13" s="1">
-        <v>115624.9472</v>
+        <v>115618.2098</v>
       </c>
       <c r="L13" s="1">
-        <v>13.508</v>
+        <v>13.5368</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-2137.3574</v>
+        <v>-2668.3841</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1053</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>13.962</v>
       </c>
       <c r="C14" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D14" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E14" s="1">
-        <v>8706.444100000001</v>
+        <v>8723.8717</v>
       </c>
       <c r="F14" s="1">
-        <v>-8706.444100000001</v>
+        <v>-8723.8717</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121559.3727</v>
+        <v>121559.3012</v>
       </c>
       <c r="I14" s="1">
-        <v>7862.6426</v>
+        <v>7331.6159</v>
       </c>
       <c r="J14" s="1">
-        <v>129422.0154</v>
+        <v>128890.917</v>
       </c>
       <c r="K14" s="1">
-        <v>117762.3046</v>
+        <v>118286.594</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5259</v>
+        <v>13.559</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3851.8723</v>
+        <v>3843.475</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125411.245</v>
+        <v>125402.7762</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0391</v>
+        <v>-0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.5994</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.6663</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="F3" s="1">
-        <v>638.5714</v>
+        <v>642.7894</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10784.5199</v>
+        <v>10741.4909</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9365.480100000001</v>
+        <v>-9446.2408</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0785</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>14.701</v>
       </c>
       <c r="C4" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D4" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E4" s="1">
-        <v>1373.898</v>
+        <v>1376.6482</v>
       </c>
       <c r="F4" s="1">
-        <v>697.5427</v>
+        <v>698.9434</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20197.6743</v>
+        <v>20197.632</v>
       </c>
       <c r="I4" s="1">
-        <v>634.5199</v>
+        <v>553.7592</v>
       </c>
       <c r="J4" s="1">
-        <v>20832.1942</v>
+        <v>20751.3912</v>
       </c>
       <c r="K4" s="1">
-        <v>19365.4801</v>
+        <v>19446.2408</v>
       </c>
       <c r="L4" s="1">
-        <v>14.0953</v>
+        <v>14.1258</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10254.5757</v>
+        <v>-10295.7857</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0023</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.8109</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E5" s="1">
-        <v>2071.4407</v>
+        <v>2075.5916</v>
       </c>
       <c r="F5" s="1">
-        <v>751.5762</v>
+        <v>741.258</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28608.4606</v>
+        <v>28608.502</v>
       </c>
       <c r="I5" s="1">
-        <v>379.9442</v>
+        <v>257.9734</v>
       </c>
       <c r="J5" s="1">
-        <v>28988.4048</v>
+        <v>28866.4754</v>
       </c>
       <c r="K5" s="1">
-        <v>29620.0558</v>
+        <v>29742.0266</v>
       </c>
       <c r="L5" s="1">
-        <v>14.2993</v>
+        <v>14.3294</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1236.5082</v>
+        <v>1238.9834</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9143.436</v>
+        <v>-9018.99</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0598</v>
+        <v>-0.0613</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.9322</v>
       </c>
       <c r="C6" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D6" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E6" s="1">
-        <v>2823.0169</v>
+        <v>2816.8497</v>
       </c>
       <c r="F6" s="1">
-        <v>806.5136</v>
+        <v>805.079</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39330.8367</v>
+        <v>39166.3226</v>
       </c>
       <c r="I6" s="1">
-        <v>1236.5082</v>
+        <v>1238.9834</v>
       </c>
       <c r="J6" s="1">
-        <v>40567.3449</v>
+        <v>40405.306</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.1692</v>
+        <v>14.2003</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11236.5082</v>
+        <v>-11238.9834</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0405</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.5846</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E7" s="1">
-        <v>3629.5305</v>
+        <v>3621.9287</v>
       </c>
       <c r="F7" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>45676.1896</v>
+        <v>45489.2508</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45676.1896</v>
+        <v>45489.2508</v>
       </c>
       <c r="K7" s="1">
-        <v>51236.5082</v>
+        <v>51238.9834</v>
       </c>
       <c r="L7" s="1">
-        <v>14.1166</v>
+        <v>14.1469</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0975</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>12.2867</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E8" s="1">
-        <v>4424.1525</v>
+        <v>4414.9626</v>
       </c>
       <c r="F8" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>54358.2346</v>
+        <v>54136.7135</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>54358.2346</v>
+        <v>54136.7135</v>
       </c>
       <c r="K8" s="1">
-        <v>61236.5082</v>
+        <v>61238.9834</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8414</v>
+        <v>13.8708</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1633.2887</v>
+        <v>1629.8679</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8366.711300000001</v>
+        <v>-8370.132100000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0237</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.0645</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E9" s="1">
-        <v>5238.0407</v>
+        <v>5227.2246</v>
       </c>
       <c r="F9" s="1">
-        <v>890.4503999999999</v>
+        <v>888.4069</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>68432.3826</v>
+        <v>68154.6446</v>
       </c>
       <c r="I9" s="1">
-        <v>1633.2887</v>
+        <v>1629.8679</v>
       </c>
       <c r="J9" s="1">
-        <v>70065.67140000001</v>
+        <v>69784.5125</v>
       </c>
       <c r="K9" s="1">
-        <v>71236.5082</v>
+        <v>71238.9834</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5998</v>
+        <v>13.6285</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11633.2887</v>
+        <v>-11629.8679</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0887</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.8083</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E10" s="1">
-        <v>6128.4911</v>
+        <v>6115.6314</v>
       </c>
       <c r="F10" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84624.04300000001</v>
+        <v>84277.682</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>84624.04300000001</v>
+        <v>84277.682</v>
       </c>
       <c r="K10" s="1">
-        <v>82869.7969</v>
+        <v>82868.85129999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5221</v>
+        <v>13.5503</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0569</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>13.5636</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E11" s="1">
-        <v>6852.6932</v>
+        <v>6838.3837</v>
       </c>
       <c r="F11" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>92947.189</v>
+        <v>92567.78049999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>92947.189</v>
+        <v>92567.78049999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92869.7969</v>
+        <v>92868.85129999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5523</v>
+        <v>13.5805</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2757.821</v>
+        <v>2752.0341</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7242.179</v>
+        <v>-7247.9659</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0177</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.1788</v>
       </c>
       <c r="C12" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D12" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E12" s="1">
-        <v>7589.9606</v>
+        <v>7574.1755</v>
       </c>
       <c r="F12" s="1">
-        <v>968.0563</v>
+        <v>965.6828</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>100026.5722</v>
+        <v>99618.58620000001</v>
       </c>
       <c r="I12" s="1">
-        <v>2757.821</v>
+        <v>2752.0341</v>
       </c>
       <c r="J12" s="1">
-        <v>102784.3931</v>
+        <v>102370.6204</v>
       </c>
       <c r="K12" s="1">
-        <v>102869.7969</v>
+        <v>102868.8513</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5534</v>
+        <v>13.5815</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12757.821</v>
+        <v>-12752.0341</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0016</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>14.5668</v>
       </c>
       <c r="C13" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D13" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E13" s="1">
-        <v>8558.016900000001</v>
+        <v>8539.8583</v>
       </c>
       <c r="F13" s="1">
-        <v>394.6779</v>
+        <v>430.757</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>124662.9206</v>
+        <v>124149.898</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>124662.9206</v>
+        <v>124149.898</v>
       </c>
       <c r="K13" s="1">
-        <v>115627.6179</v>
+        <v>115620.8854</v>
       </c>
       <c r="L13" s="1">
-        <v>13.511</v>
+        <v>13.539</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5749.1937</v>
+        <v>-6287.3294</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1053</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>13.962</v>
       </c>
       <c r="C14" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D14" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E14" s="1">
-        <v>8952.694799999999</v>
+        <v>8970.615299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8952.694799999999</v>
+        <v>-8970.615299999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124997.5245</v>
+        <v>124997.4509</v>
       </c>
       <c r="I14" s="1">
-        <v>4250.8063</v>
+        <v>3712.6706</v>
       </c>
       <c r="J14" s="1">
-        <v>129248.3308</v>
+        <v>128710.1215</v>
       </c>
       <c r="K14" s="1">
-        <v>121376.8116</v>
+        <v>121908.2149</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5576</v>
+        <v>13.5897</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3851.1076</v>
+        <v>3842.9362</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128848.6321</v>
+        <v>128840.3871</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0402</v>
+        <v>-0.0405</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6078</v>
+        <v>13.6351</v>
       </c>
       <c r="D3" s="1">
-        <v>13.4757</v>
+        <v>13.5062</v>
       </c>
       <c r="E3" s="1">
-        <v>13.4886</v>
+        <v>13.5233</v>
       </c>
       <c r="F3" s="1">
-        <v>13.5259</v>
+        <v>13.559</v>
       </c>
       <c r="G3" s="1">
-        <v>13.5576</v>
+        <v>13.5897</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0466</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1295</v>
+        <v>0.1168</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1359</v>
+        <v>0.1234</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1358</v>
+        <v>0.123</v>
       </c>
       <c r="F4" s="3">
-        <v>0.134</v>
+        <v>0.1212</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1325</v>
+        <v>0.1196</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.202</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2076</v>
+        <v>0.2067</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2064</v>
+        <v>0.206</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2087</v>
+        <v>0.208</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2093</v>
+        <v>0.2084</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2097</v>
+        <v>0.2089</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.1301</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5258</v>
+        <v>0.4668</v>
       </c>
       <c r="D6" s="4">
-        <v>0.5597</v>
+        <v>0.5006</v>
       </c>
       <c r="E6" s="4">
-        <v>0.5534</v>
+        <v>0.4935</v>
       </c>
       <c r="F6" s="4">
-        <v>0.543</v>
+        <v>0.4837</v>
       </c>
       <c r="G6" s="4">
-        <v>0.5349</v>
+        <v>0.4753</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2037</v>
+        <v>0.1948</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2212</v>
+        <v>0.2125</v>
       </c>
       <c r="E7" s="3">
-        <v>0.22</v>
+        <v>0.2105</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2147</v>
+        <v>0.2054</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2105</v>
+        <v>0.2013</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>9354.4324</v>
+        <v>9335.395699999999</v>
       </c>
       <c r="D8" s="1">
-        <v>9353.858700000001</v>
+        <v>9365.066199999999</v>
       </c>
       <c r="E8" s="1">
-        <v>9471.326800000001</v>
+        <v>9460.6116</v>
       </c>
       <c r="F8" s="1">
-        <v>9476.8195</v>
+        <v>9461.684800000001</v>
       </c>
       <c r="G8" s="1">
-        <v>9478.7255</v>
+        <v>9463.8217</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P18_KFSDIV.xlsx
+++ b/output/1Y_P18_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -2110,10 +2113,10 @@
         <v>130351.3155</v>
       </c>
       <c r="K14" s="1">
-        <v>111449.5687</v>
+        <v>111455.9287</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5018</v>
+        <v>13.5026</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
@@ -2878,10 +2881,10 @@
         <v>130447.6026</v>
       </c>
       <c r="K14" s="1">
-        <v>114637.6119</v>
+        <v>114642.8895</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5103</v>
+        <v>13.5109</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4493,10 +4496,10 @@
         <v>13.6344</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5018</v>
+        <v>13.5026</v>
       </c>
       <c r="E3" s="1">
-        <v>13.5103</v>
+        <v>13.5109</v>
       </c>
       <c r="F3" s="1">
         <v>13.5451</v>
@@ -4612,6 +4615,26 @@
       </c>
       <c r="G8" s="1">
         <v>11022.3341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.022</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1695</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1379</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1028</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0689</v>
       </c>
     </row>
   </sheetData>
